--- a/Emerging Tech/SYM_MODEL.xlsx
+++ b/Emerging Tech/SYM_MODEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Emerging Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB75496-A08A-44C7-B6FC-71F2ADAF0CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B6C0F-8AF6-49A9-8E89-68D2AE2FF309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="0" windowWidth="19335" windowHeight="20985" activeTab="2" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="9885" yWindow="7665" windowWidth="21600" windowHeight="11385" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>Price</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>EV/Backlog</t>
+  </si>
+  <si>
+    <t>Beat Guidance</t>
+  </si>
+  <si>
+    <t>590 to 610 mill</t>
+  </si>
+  <si>
+    <t>adjusted ebitda of 45-49</t>
   </si>
 </sst>
 </file>
@@ -307,7 +319,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +370,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -470,7 +490,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -517,13 +537,10 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -862,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>61.7</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>45874</v>
@@ -904,7 +921,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="1">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>52</v>
@@ -918,7 +935,7 @@
         <v>590</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>54</v>
@@ -933,7 +950,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>36403</v>
+        <v>30680</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>55</v>
@@ -950,7 +967,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="1">
-        <v>955</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -973,7 +990,7 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>35476</v>
+        <v>29930</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -991,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1021,7 @@
     <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
@@ -1122,6 +1139,9 @@
       <c r="Q3" s="1">
         <v>513</v>
       </c>
+      <c r="R3" s="1">
+        <v>559</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1169,6 +1189,9 @@
       <c r="Q4" s="1">
         <v>7</v>
       </c>
+      <c r="R4" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1215,6 +1238,9 @@
       </c>
       <c r="Q5" s="1">
         <v>30</v>
+      </c>
+      <c r="R5" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1289,110 +1315,116 @@
         <f>SUM(Q3:Q5)</f>
         <v>550</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="35">
+        <v>592</v>
+      </c>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
         <v>56</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="29">
         <v>72</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="29">
         <v>136</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="29">
         <v>200</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="29">
         <v>161</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="29">
         <v>213</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="29">
         <v>245</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="29">
         <v>321</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="29">
         <v>284</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="29">
         <v>342</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="29">
         <v>408</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="29">
         <v>442</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="29">
         <v>382</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="17">
         <v>415</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-    </row>
-    <row r="9" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
+      <c r="R8" s="17">
+        <v>458</v>
+      </c>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29">
         <v>1</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="29">
         <v>2</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="29">
         <v>2</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="29">
         <v>4</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="29">
         <v>2</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="29">
         <v>2</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="29">
         <v>2</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="29">
         <v>3</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="29">
         <v>3</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="29">
         <v>2</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="17">
         <v>2</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
+      <c r="R9" s="17">
+        <v>2</v>
+      </c>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
@@ -1442,6 +1474,9 @@
       <c r="Q10" s="1">
         <v>25</v>
       </c>
+      <c r="R10" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1454,7 +1489,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:Q12" si="1">E7 - SUM(E8:E10)</f>
+        <f t="shared" ref="E11:R11" si="1">E7 - SUM(E8:E10)</f>
         <v>18</v>
       </c>
       <c r="F11" s="4">
@@ -1502,6 +1537,10 @@
         <v>80</v>
       </c>
       <c r="Q11" s="4">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="R11" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
@@ -1554,6 +1593,9 @@
       <c r="Q12" s="17">
         <v>62</v>
       </c>
+      <c r="R12" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
@@ -1603,6 +1645,9 @@
       <c r="Q13" s="17">
         <v>78</v>
       </c>
+      <c r="R13" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:20" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1610,60 +1655,64 @@
         <v>11</v>
       </c>
       <c r="D14" s="4">
-        <f>D11-SUM(D12:D13)</f>
+        <f t="shared" ref="D14:R14" si="2">D11-SUM(D12:D13)</f>
         <v>-22</v>
       </c>
       <c r="E14" s="4">
-        <f>E11-SUM(E12:E13)</f>
+        <f t="shared" si="2"/>
         <v>-29</v>
       </c>
       <c r="F14" s="4">
-        <f>F11-SUM(F12:F13)</f>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="G14" s="4">
-        <f>G11-SUM(G12:G13)</f>
+        <f t="shared" si="2"/>
         <v>-54</v>
       </c>
       <c r="H14" s="4">
-        <f>H11-SUM(H12:H13)</f>
+        <f t="shared" si="2"/>
         <v>-71</v>
       </c>
       <c r="I14" s="4">
-        <f>I11-SUM(I12:I13)</f>
+        <f t="shared" si="2"/>
         <v>-58</v>
       </c>
       <c r="J14" s="4">
-        <f>J11-SUM(J12:J13)</f>
+        <f t="shared" si="2"/>
         <v>-43</v>
       </c>
       <c r="K14" s="4">
-        <f>K11-SUM(K12:K13)</f>
+        <f t="shared" si="2"/>
         <v>-54</v>
       </c>
       <c r="L14" s="4">
-        <f>L11-SUM(L12:L13)</f>
+        <f t="shared" si="2"/>
         <v>-26</v>
       </c>
       <c r="M14" s="4">
-        <f>M11-SUM(M12:M13)</f>
+        <f t="shared" si="2"/>
         <v>-64</v>
       </c>
       <c r="N14" s="4">
-        <f>N11-SUM(N12:N13)</f>
+        <f t="shared" si="2"/>
         <v>-26</v>
       </c>
       <c r="O14" s="4">
-        <f>O11-SUM(O12:O13)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="P14" s="4">
-        <f>P11-SUM(P12:P13)</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="Q14" s="4">
-        <f>Q11-SUM(Q12:Q13)</f>
+        <f t="shared" si="2"/>
         <v>-32</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="2"/>
+        <v>-36</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1712,6 +1761,9 @@
       <c r="Q15" s="1">
         <v>-20</v>
       </c>
+      <c r="R15" s="1">
+        <v>-28</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -1759,8 +1811,11 @@
       <c r="Q16" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1806,69 +1861,76 @@
       <c r="Q17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ref="D18" si="2">D15-D16-D17</f>
+        <f t="shared" ref="D18" si="3">D15-D16-D17</f>
         <v>-23</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" ref="E18" si="3">E15-E16-E17</f>
+        <f t="shared" ref="E18" si="4">E15-E16-E17</f>
         <v>-29</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" ref="F18" si="4">F15-F16-F17</f>
+        <f t="shared" ref="F18" si="5">F15-F16-F17</f>
         <v>-33</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18" si="5">G15-G16-G17</f>
+        <f t="shared" ref="G18" si="6">G15-G16-G17</f>
         <v>-53</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ref="H18" si="6">H15-H16-H17</f>
+        <f t="shared" ref="H18" si="7">H15-H16-H17</f>
         <v>-68</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ref="I18" si="7">I15-I16-I17</f>
+        <f t="shared" ref="I18" si="8">I15-I16-I17</f>
         <v>-55</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18" si="8">J15-J16-J17</f>
+        <f t="shared" ref="J18" si="9">J15-J16-J17</f>
         <v>-39</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ref="K18" si="9">K15-K16-K17</f>
+        <f t="shared" ref="K18" si="10">K15-K16-K17</f>
         <v>-45</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" ref="L18" si="10">L15-L16-L17</f>
+        <f t="shared" ref="L18" si="11">L15-L16-L17</f>
         <v>-18.8</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" ref="M18:P18" si="11">M15-M16-M17</f>
+        <f t="shared" ref="M18:P18" si="12">M15-M16-M17</f>
         <v>-54.8</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-14.1</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28.8</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-18.7</v>
       </c>
       <c r="Q18" s="5">
         <f>Q15-Q16-Q17</f>
         <v>-21</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="5">
+        <f>R15-R16-R17</f>
+        <v>-32.04</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1915,8 +1977,11 @@
       <c r="Q19" s="31">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,8 +2027,11 @@
       <c r="Q20" s="1">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="1">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1980,47 +2048,55 @@
         <v>44</v>
       </c>
       <c r="H22" s="6">
-        <f>(H7/D7) - 1</f>
+        <f t="shared" ref="H22:Q22" si="13">(H7/D7) - 1</f>
         <v>1.6753246753246751</v>
       </c>
       <c r="I22" s="6">
-        <f>(I7/E7) - 1</f>
+        <f t="shared" si="13"/>
         <v>1.7525773195876289</v>
       </c>
       <c r="J22" s="6">
-        <f>(J7/F7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.78285714285714292</v>
       </c>
       <c r="K22" s="6">
-        <f>(K7/G7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="L22" s="6">
-        <f>(L7/H7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.74271844660194164</v>
       </c>
       <c r="M22" s="6">
-        <f>(M7/I7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.47565543071161054</v>
       </c>
       <c r="N22" s="6">
-        <f>(N7/J7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="O22" s="6">
-        <f>(O7/K7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.46938775510204089</v>
       </c>
       <c r="P22" s="6">
-        <f>(P7/L7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.35654596100278546</v>
       </c>
       <c r="Q22" s="6">
-        <f>(Q7/M7) - 1</f>
+        <f t="shared" si="13"/>
         <v>0.39593908629441632</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="6">
+        <f t="shared" ref="R22" si="14">(R7/N7) - 1</f>
+        <v>0.20325203252032531</v>
+      </c>
+      <c r="S22" s="6">
+        <f t="shared" ref="S22" si="15">(S7/O7) - 1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2028,59 +2104,67 @@
         <v>44</v>
       </c>
       <c r="E23" s="6">
-        <f xml:space="preserve"> (E7/D7) - 1</f>
+        <f t="shared" ref="E23:S23" si="16" xml:space="preserve"> (E7/D7) - 1</f>
         <v>0.25974025974025983</v>
       </c>
       <c r="F23" s="6">
-        <f xml:space="preserve"> (F7/E7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.80412371134020622</v>
       </c>
       <c r="G23" s="6">
-        <f xml:space="preserve"> (G7/F7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H23" s="6">
-        <f xml:space="preserve"> (H7/G7) - 1</f>
+        <f t="shared" si="16"/>
         <v>-0.15918367346938778</v>
       </c>
       <c r="I23" s="6">
-        <f xml:space="preserve"> (I7/H7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.29611650485436902</v>
       </c>
       <c r="J23" s="6">
-        <f xml:space="preserve"> (J7/I7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.1685393258426966</v>
       </c>
       <c r="K23" s="6">
-        <f xml:space="preserve"> (K7/J7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.25641025641025639</v>
       </c>
       <c r="L23" s="6">
-        <f xml:space="preserve"> (L7/K7) - 1</f>
+        <f t="shared" si="16"/>
         <v>-8.418367346938771E-2</v>
       </c>
       <c r="M23" s="6">
-        <f xml:space="preserve"> (M7/L7) - 1</f>
+        <f t="shared" si="16"/>
         <v>9.7493036211699247E-2</v>
       </c>
       <c r="N23" s="6">
-        <f xml:space="preserve"> (N7/M7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.24873096446700504</v>
       </c>
       <c r="O23" s="6">
-        <f xml:space="preserve"> (O7/N7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.1707317073170731</v>
       </c>
       <c r="P23" s="6">
-        <f xml:space="preserve"> (P7/O7) - 1</f>
+        <f t="shared" si="16"/>
         <v>-0.15451388888888884</v>
       </c>
       <c r="Q23" s="6">
-        <f xml:space="preserve"> (Q7/P7) - 1</f>
+        <f t="shared" si="16"/>
         <v>0.12936344969199176</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="6">
+        <f t="shared" si="16"/>
+        <v>7.6363636363636411E-2</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2093,7 +2177,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
@@ -2124,8 +2208,11 @@
       <c r="Q25" s="6">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="6">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
@@ -2156,55 +2243,61 @@
       <c r="Q26" s="6">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="39" t="s">
+      <c r="R26" s="6">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="34">
         <v>-21.3</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="34">
         <v>-29.9</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="34">
         <v>-21.8</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="34">
         <v>-20.399999999999999</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="34">
         <v>-16.3</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="34">
         <v>-11.2</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="34">
         <v>-3</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="34">
         <v>13</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="34">
         <v>8</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="34">
         <v>9</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="34">
         <v>15</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="34">
         <v>54</v>
       </c>
-      <c r="P27" s="39">
+      <c r="P27" s="34">
         <v>18</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="34">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="R27" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>25</v>
       </c>
@@ -2251,8 +2344,11 @@
       <c r="Q29" s="8">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="R29" s="8">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
         <v>24</v>
       </c>
@@ -2299,57 +2395,60 @@
       <c r="Q30" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" ref="D31:O31" si="12">D29-D30</f>
+        <f t="shared" ref="D31:O31" si="17">D29-D30</f>
         <v>47.5</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-104</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>31.599999999999998</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-58.7</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>94.1</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>25.3</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>46.9</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-33</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>33.299999999999997</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>-119</v>
       </c>
       <c r="P31" s="8">
@@ -2360,8 +2459,12 @@
         <f>Q29-Q30</f>
         <v>249</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="8">
+        <f>R29-R30</f>
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="29"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
@@ -2388,35 +2491,35 @@
         <v>44</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:O33" si="13">IF(D31=0,IF(H31=0,0,NA()),(H31-D31)/ABS(D31))</f>
+        <f t="shared" ref="H33:O33" si="18">IF(D31=0,IF(H31=0,0,NA()),(H31-D31)/ABS(D31))</f>
         <v>0.98105263157894729</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.2432692307692308</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.4841772151898735</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>1.6814310051107324</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-1.3506907545164719</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.28853754940711462</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.28997867803837957</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-3.9750000000000001</v>
       </c>
       <c r="P33" s="6">
@@ -2450,8 +2553,12 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="12"/>
+      <c r="Q36" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
@@ -2463,6 +2570,9 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
+      <c r="R37" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="Z37" s="16"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
@@ -2533,93 +2643,28 @@
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40" t="s">
+      <c r="P42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
       <c r="Z42" s="16"/>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40" t="s">
+      <c r="P43" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
       <c r="Z43" s="16"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B44" s="15"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40" t="s">
+      <c r="P44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
       <c r="Z44" s="16"/>
     </row>
     <row r="45" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2707,285 +2752,285 @@
       <c r="B55" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="37"/>
     </row>
     <row r="56" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="37"/>
     </row>
     <row r="57" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="34"/>
-      <c r="W57" s="34"/>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="37"/>
     </row>
     <row r="58" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="35"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="37"/>
     </row>
     <row r="59" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="37"/>
     </row>
     <row r="60" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="35"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="37"/>
     </row>
     <row r="61" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="34"/>
-      <c r="O61" s="34"/>
-      <c r="P61" s="34"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="34"/>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34"/>
-      <c r="Z61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="37"/>
     </row>
     <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="37"/>
     </row>
     <row r="63" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34"/>
-      <c r="W63" s="34"/>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34"/>
-      <c r="Z63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="37"/>
     </row>
     <row r="64" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="34"/>
-      <c r="W64" s="34"/>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34"/>
-      <c r="Z64" s="35"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="37"/>
     </row>
     <row r="65" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
@@ -3091,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E9F137-22FE-4308-BDDF-83014D17E147}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,6 +3190,14 @@
       </c>
       <c r="B7">
         <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -3272,6 +3325,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -3415,22 +3483,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3446,28 +3523,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Emerging Tech/SYM_MODEL.xlsx
+++ b/Emerging Tech/SYM_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Emerging Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B6C0F-8AF6-49A9-8E89-68D2AE2FF309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F1562-4F88-434D-A25B-3108908C5DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="7665" windowWidth="21600" windowHeight="11385" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -3325,21 +3325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -3483,31 +3468,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3523,4 +3499,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Emerging Tech/SYM_MODEL.xlsx
+++ b/Emerging Tech/SYM_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Emerging Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52F1562-4F88-434D-A25B-3108908C5DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE69523-72E5-4A69-8A23-43ECE30BB5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -319,13 +319,19 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -487,60 +493,61 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -879,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -915,7 +922,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="2">
-        <v>45874</v>
+        <v>45981</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
@@ -934,7 +941,7 @@
       <c r="B5" s="1">
         <v>590</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1008,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:R5"/>
     </sheetView>
   </sheetViews>
@@ -3325,6 +3332,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -3468,22 +3490,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3499,28 +3530,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Emerging Tech/SYM_MODEL.xlsx
+++ b/Emerging Tech/SYM_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Emerging Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE69523-72E5-4A69-8A23-43ECE30BB5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF21794-7157-468C-966A-66D84E71C5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>Price</t>
   </si>
@@ -309,23 +309,49 @@
   </si>
   <si>
     <t>adjusted ebitda of 45-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEAT </t>
+  </si>
+  <si>
+    <t>610-630</t>
+  </si>
+  <si>
+    <t>49-53</t>
+  </si>
+  <si>
+    <t>Added Medline (big client)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -493,61 +519,67 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -887,7 +919,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -919,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>52</v>
+        <v>77.56</v>
       </c>
       <c r="C4" s="2">
         <v>45981</v>
@@ -941,7 +973,7 @@
       <c r="B5" s="1">
         <v>590</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -957,7 +989,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>30680</v>
+        <v>45760.4</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>55</v>
@@ -997,7 +1029,7 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>29930</v>
+        <v>45010.400000000001</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1015,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:R5"/>
+    <sheetView topLeftCell="L18" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1061,7 @@
     <col min="15" max="15" width="14.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1149,6 +1181,9 @@
       <c r="R3" s="1">
         <v>559</v>
       </c>
+      <c r="S3" s="1">
+        <v>582</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1199,6 +1234,9 @@
       <c r="R4" s="1">
         <v>8</v>
       </c>
+      <c r="S4" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1248,6 +1286,9 @@
       </c>
       <c r="R5" s="1">
         <v>25</v>
+      </c>
+      <c r="S5" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1325,7 +1366,9 @@
       <c r="R7" s="35">
         <v>592</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="4">
+        <v>618</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
@@ -1378,60 +1421,62 @@
       <c r="R8" s="17">
         <v>458</v>
       </c>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29" t="s">
+      <c r="S8" s="17">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="38">
         <v>1</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="38">
         <v>1</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="38">
         <v>1</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="38">
         <v>2</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="38">
         <v>2</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="38">
         <v>4</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="38">
         <v>2</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="38">
         <v>2</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="38">
         <v>2</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="38">
         <v>3</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="38">
         <v>3</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="38">
         <v>2</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="38">
         <v>2</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="38">
         <v>2</v>
       </c>
-      <c r="S9" s="17"/>
+      <c r="S9" s="38">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
@@ -1484,6 +1529,9 @@
       <c r="R10" s="1">
         <v>24</v>
       </c>
+      <c r="S10" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -1496,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:R11" si="1">E7 - SUM(E8:E10)</f>
+        <f t="shared" ref="E11:T11" si="1">E7 - SUM(E8:E10)</f>
         <v>18</v>
       </c>
       <c r="F11" s="4">
@@ -1550,6 +1598,14 @@
       <c r="R11" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="1"/>
+        <v>127.19999999999999</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1603,6 +1659,9 @@
       <c r="R12" s="1">
         <v>52</v>
       </c>
+      <c r="S12" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
@@ -1655,6 +1714,9 @@
       <c r="R13" s="1">
         <v>92</v>
       </c>
+      <c r="S13" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:20" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1662,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:R14" si="2">D11-SUM(D12:D13)</f>
+        <f t="shared" ref="D14:T14" si="2">D11-SUM(D12:D13)</f>
         <v>-22</v>
       </c>
       <c r="E14" s="4">
@@ -1721,6 +1783,14 @@
         <f t="shared" si="2"/>
         <v>-36</v>
       </c>
+      <c r="S14" s="4">
+        <f t="shared" si="2"/>
+        <v>-21.800000000000011</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -1771,6 +1841,9 @@
       <c r="R15" s="1">
         <v>-28</v>
       </c>
+      <c r="S15" s="1">
+        <v>-13.7</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -1821,8 +1894,11 @@
       <c r="R16" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S16" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1871,8 +1947,11 @@
       <c r="R17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="S17" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1936,8 +2015,16 @@
         <f>R15-R16-R17</f>
         <v>-32.04</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="5">
+        <f t="shared" ref="S18:T18" si="13">S15-S16-S17</f>
+        <v>-19.54</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1987,8 +2074,11 @@
       <c r="R19" s="1">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S19" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2037,8 +2127,11 @@
       <c r="R20" s="1">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="1">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2055,55 +2148,55 @@
         <v>44</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:Q22" si="13">(H7/D7) - 1</f>
+        <f t="shared" ref="H22:Q22" si="14">(H7/D7) - 1</f>
         <v>1.6753246753246751</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7525773195876289</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.78285714285714292</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.74271844660194164</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.47565543071161054</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.46938775510204089</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.35654596100278546</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.39593908629441632</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22" si="14">(R7/N7) - 1</f>
+        <f t="shared" ref="R22" si="15">(R7/N7) - 1</f>
         <v>0.20325203252032531</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" ref="S22" si="15">(S7/O7) - 1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S22" si="16">(S7/O7) - 1</f>
+        <v>7.2916666666666741E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2111,67 +2204,67 @@
         <v>44</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:S23" si="16" xml:space="preserve"> (E7/D7) - 1</f>
+        <f t="shared" ref="E23:S23" si="17" xml:space="preserve"> (E7/D7) - 1</f>
         <v>0.25974025974025983</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.80412371134020622</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15918367346938778</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.29611650485436902</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1685393258426966</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.25641025641025639</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-8.418367346938771E-2</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.7493036211699247E-2</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.24873096446700504</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1707317073170731</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15451388888888884</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.12936344969199176</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.6363636363636411E-2</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>4.3918918918918859E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2184,77 +2277,83 @@
       <c r="O24" s="7"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="2:20" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41">
         <v>0.17</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="41">
         <v>0.15</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="41">
         <v>0.17799999999999999</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="41">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="41">
         <v>0.13700000000000001</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="41">
         <v>0.188</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="40">
         <v>0.16400000000000001</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="40">
         <v>0.19600000000000001</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="40">
         <v>0.182</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+      <c r="S25" s="40">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41">
         <v>0.183</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="41">
         <v>0.191</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="41">
         <v>0.188</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="41">
         <v>0.17699999999999999</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="41">
         <v>0.156</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="41">
         <v>0.19600000000000001</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="40">
         <v>0.17699999999999999</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="40">
         <v>0.222</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="40">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="40">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="34" t="s">
         <v>64</v>
       </c>
@@ -2303,8 +2402,11 @@
       <c r="R27" s="34">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="S27" s="34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>25</v>
       </c>
@@ -2354,8 +2456,11 @@
       <c r="R29" s="8">
         <v>-138</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="8">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
         <v>24</v>
       </c>
@@ -2405,57 +2510,60 @@
       <c r="R30" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="S30" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" ref="D31:O31" si="17">D29-D30</f>
+        <f t="shared" ref="D31:O31" si="18">D29-D30</f>
         <v>47.5</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-104</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.599999999999998</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-58.7</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>94.1</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25.3</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>46.9</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-33</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.299999999999997</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-119</v>
       </c>
       <c r="P31" s="8">
@@ -2470,8 +2578,12 @@
         <f>R29-R30</f>
         <v>-153</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S31" s="8">
+        <f>S29-S30</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="29"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
@@ -2498,35 +2610,35 @@
         <v>44</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:O33" si="18">IF(D31=0,IF(H31=0,0,NA()),(H31-D31)/ABS(D31))</f>
+        <f t="shared" ref="H33:O33" si="19">IF(D31=0,IF(H31=0,0,NA()),(H31-D31)/ABS(D31))</f>
         <v>0.98105263157894729</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2432692307692308</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.4841772151898735</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.6814310051107324</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-1.3506907545164719</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.28853754940711462</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-0.28997867803837957</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-3.9750000000000001</v>
       </c>
       <c r="P33" s="6">
@@ -2566,7 +2678,9 @@
       <c r="R36" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="S36" s="12"/>
+      <c r="S36" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
@@ -2580,11 +2694,17 @@
       <c r="R37" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="S37" s="37" t="s">
+        <v>92</v>
+      </c>
       <c r="Z37" s="16"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="Q38" s="17"/>
+      <c r="R38" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="Z38" s="16"/>
     </row>
     <row r="39" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2665,6 +2785,9 @@
       <c r="P43" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="S43" s="42" t="s">
+        <v>93</v>
+      </c>
       <c r="Z43" s="16"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.2">
@@ -2759,285 +2882,285 @@
       <c r="B55" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="37"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="44"/>
     </row>
     <row r="56" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="37"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="44"/>
     </row>
     <row r="57" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="37"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="44"/>
     </row>
     <row r="58" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="37"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="44"/>
     </row>
     <row r="59" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="37"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="44"/>
     </row>
     <row r="60" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="37"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="44"/>
     </row>
     <row r="61" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="37"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="44"/>
     </row>
     <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="37"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="44"/>
     </row>
     <row r="63" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="36"/>
-      <c r="X63" s="36"/>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="37"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="44"/>
     </row>
     <row r="64" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-      <c r="Z64" s="37"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="44"/>
     </row>
     <row r="65" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
@@ -3332,21 +3455,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -3490,31 +3598,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3530,4 +3629,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>